--- a/historial_parqueadero.xlsx
+++ b/historial_parqueadero.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VGF456</t>
+          <t>ABC000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,50 +502,50 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>16:37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9:28</t>
+          <t>18:35</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>20.98</v>
+        <v>1.97</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>63000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHT345</t>
+          <t>ABC098</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-05-18</t>
+          <t>2025-05-17</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:10</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,25 +555,25 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23:10</t>
+          <t>8:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>19.32</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>16500</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABC124</t>
+          <t>VGF456</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Moto</t>
+          <t>Carro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -593,51 +593,127 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17:57</t>
+          <t>9:28</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.95</v>
+        <v>20.98</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>7500</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CHT345</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12:10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ABC124</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>17:57</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>ABC123</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Carro</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>11:57</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>11:58</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G7" t="n">
         <v>0.02</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H7" s="2" t="n">
         <v>750</v>
       </c>
     </row>
